--- a/cosmo/sigma_profiles/tzvp.xlsx
+++ b/cosmo/sigma_profiles/tzvp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/basgonzalez_udec_cl/Documents/Doctorado/1_Solvation in FDES/HFC_in_FDES/cosmo/sigma_profiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/basgonzalez_udec_cl/Documents/Doctorado/1_Solvation in FDES/hfc-in-fes/cosmo/sigma_profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="8_{0E97520A-E85F-DA4B-84B7-6476126DA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7684B54A-A406-664F-9925-415CAE5657FC}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="8_{0E97520A-E85F-DA4B-84B7-6476126DA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1AF075B-4A9D-644A-987A-02D29AB8FAF0}"/>
   <bookViews>
-    <workbookView xWindow="-44080" yWindow="-2020" windowWidth="44080" windowHeight="21100" activeTab="10" xr2:uid="{9CC7A05C-6CF8-844D-A94B-21C58A8695B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="10" xr2:uid="{9CC7A05C-6CF8-844D-A94B-21C58A8695B3}"/>
   </bookViews>
   <sheets>
     <sheet name="difluoromethane" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="tetra-n-butylphosphonium" sheetId="8" r:id="rId8"/>
     <sheet name="br" sheetId="9" r:id="rId9"/>
     <sheet name="perfluoropentanoic_acid" sheetId="10" r:id="rId10"/>
-    <sheet name="c2m_hdfs_pfpa-1_2" sheetId="11" r:id="rId11"/>
+    <sheet name="c2mim_hdfs_pfpa-1_2" sheetId="11" r:id="rId11"/>
     <sheet name="tba_nfs_pfpa-1_2" sheetId="12" r:id="rId12"/>
     <sheet name="tbp_br_pfpa-1_2" sheetId="13" r:id="rId13"/>
   </sheets>
@@ -809,7 +809,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1001,7 +1001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$C$2:$C$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$C$2:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1230,7 +1230,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1422,7 +1422,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$D$2:$D$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1651,7 +1651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1843,7 +1843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$E$2:$E$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$E$2:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2072,7 +2072,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2264,7 +2264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$F$2:$F$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$F$2:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2493,7 +2493,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2685,7 +2685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$G$2:$G$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$G$2:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2914,7 +2914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3106,7 +3106,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'c2m_hdfs_pfpa-1_2'!$H$2:$H$62</c:f>
+              <c:f>'c2mim_hdfs_pfpa-1_2'!$H$2:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3448,6 +3448,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3455,7 +3456,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7417,7 +7417,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9106,7 +9106,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
